--- a/CreditosFiscales/ArchivosPrueba/Archivo Prueba.xlsx
+++ b/CreditosFiscales/ArchivosPrueba/Archivo Prueba.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YK\SDMA6\POL\Creditos Fiscales\8241 Actualiza Proceso Pagos\0. Insumos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RESPALDO SYE\8241\CreditosFiscales\ArchivosPrueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2064A6BB-31EF-406F-AE83-C2610B20ED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEAC6F8-E771-419D-9B47-B713CD9D2FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0306CCB9-8A9B-4906-8CC6-84E85740BD4E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{0306CCB9-8A9B-4906-8CC6-84E85740BD4E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
-    <sheet name="Datos Prueba" sheetId="1" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="4" r:id="rId3"/>
-    <sheet name="Matriz" sheetId="3" r:id="rId4"/>
+    <sheet name="Datos Prueba" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId2"/>
+    <sheet name="Matriz" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -424,868 +423,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Datos Prueba'!$A$13:$D$13</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>E40062230420</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Valido</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Datos Prueba'!$E$1:$E$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Resultado</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Datos Prueba'!$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B626-4562-A7A0-9627F6178256}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="580419840"/>
-        <c:axId val="2123870368"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="580419840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2123870368"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2123870368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="580419840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1AED5104-E00C-4834-A70E-6FDC176CC16D}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9279038" cy="6057418"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BD285E-0123-F460-0167-E09DD51CE41B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1323,7 +464,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1429,7 +570,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1571,7 +712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1750,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D982AB3E-3EA0-46DB-B3EC-8C31F44AE3FE}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1785,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB00FA53-CD6E-4D70-8FAC-4AAA57C33A44}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
